--- a/Noyau RH FPE/6. NOMENCLATURES ET AUTRES REFERENTIELS/Nomenclatures SIRH/Informations complémentaires/FIP_MOT_CESS_DEF_FCTN_25.00.00.xlsx
+++ b/Noyau RH FPE/6. NOMENCLATURES ET AUTRES REFERENTIELS/Nomenclatures SIRH/Informations complémentaires/FIP_MOT_CESS_DEF_FCTN_25.00.00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BALIDFS1\onp\ONP\CISIRH\03-BARRI\REFERENTIELS\NOYAU\1-20250704_25.00.00\8-Informations complémentaires\Correspondance codes FIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03-BARRI\VERSIONS NOYAU DIFFUSEES\20250704_25.00.00\8-Informations complémentaires\Correspondance codes FIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339520E-6134-4DCC-90BF-77EA69EAB97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147A676-2091-4D76-B372-5C144FAB573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="439">
   <si>
     <t>R_FOR_IDEN05</t>
   </si>
@@ -1305,9 +1305,6 @@
     <t>MC200</t>
   </si>
   <si>
-    <t>MC122</t>
-  </si>
-  <si>
     <t>RD âge/durée serv</t>
   </si>
   <si>
@@ -1320,9 +1317,6 @@
     <t>RD maladie conjoin</t>
   </si>
   <si>
-    <t>Dém suite refus re</t>
-  </si>
-  <si>
     <t>Licenciement cours</t>
   </si>
   <si>
@@ -1335,9 +1329,6 @@
     <t>Rup anticip contra</t>
   </si>
   <si>
-    <t>Dém suite refus renouv contrat projet</t>
-  </si>
-  <si>
     <t>Licenciement supp besoin/empl-rec agent</t>
   </si>
   <si>
@@ -1347,9 +1338,6 @@
     <t>Radiation condamnation peine criminelle</t>
   </si>
   <si>
-    <t>Démission suite au refus par l'agent du renouvellement du contrat de projet</t>
-  </si>
-  <si>
     <t>Licenciement suite à suppression du besoin ou de l'emploi qui a justifié le recrutement de l'agent</t>
   </si>
   <si>
@@ -1357,6 +1345,15 @@
   </si>
   <si>
     <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>RO fin CAA</t>
+  </si>
+  <si>
+    <t>Retraite d'office à l'expiration de la CAA</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1629,6 +1626,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,8 +1994,8 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2055,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>399</v>
@@ -2212,10 +2223,10 @@
         <v>401</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>402</v>
@@ -2352,7 +2363,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>404</v>
@@ -2380,7 +2391,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>405</v>
@@ -2436,7 +2447,7 @@
         <v>408</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>410</v>
@@ -2544,313 +2555,317 @@
       </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="40" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="I20" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
+      <c r="F21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40" t="s">
+      <c r="C22" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="I22" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="48"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="C23" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="I23" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="52"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40" t="s">
+      <c r="C24" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="I24" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27" t="s">
+      <c r="C25" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="J25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40" t="s">
+      <c r="C26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>438</v>
+      </c>
+      <c r="H26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="I26" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="48"/>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27" t="s">
+      <c r="C27" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="J27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40" t="s">
+      <c r="C28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="I28" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="16"/>
+      <c r="C30" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -3243,10 +3258,10 @@
         <v>160</v>
       </c>
       <c r="D45" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>433</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>437</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>10</v>
@@ -3556,7 +3571,7 @@
         <v>198</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D57" s="40" t="s">
         <v>199</v>
@@ -3582,7 +3597,7 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>202</v>
@@ -4080,7 +4095,7 @@
         <v>272</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>273</v>
@@ -4178,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H79" s="40" t="s">
         <v>283</v>
@@ -4208,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H80" s="27" t="s">
         <v>283</v>
@@ -4233,7 +4248,7 @@
         <v>290</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="G81" s="40"/>
       <c r="H81" s="40" t="s">
@@ -4300,7 +4315,7 @@
       <c r="A84" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C84" s="27" t="s">
@@ -4364,7 +4379,7 @@
         <v>391</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F86" s="27" t="s">
         <v>10</v>
@@ -4568,7 +4583,7 @@
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>397</v>
@@ -4668,7 +4683,7 @@
         <v>421</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J97" s="34"/>
     </row>
@@ -4963,7 +4978,7 @@
         <v>330</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E108" s="40" t="s">
         <v>352</v>
@@ -5047,7 +5062,7 @@
         <v>360</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E111" s="27" t="s">
         <v>361</v>
